--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il6-Il6ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il6-Il6ra.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.921332</v>
+        <v>8.651718000000001</v>
       </c>
       <c r="H2">
-        <v>26.763996</v>
+        <v>25.955154</v>
       </c>
       <c r="I2">
-        <v>0.08132400804126952</v>
+        <v>0.09424769069200405</v>
       </c>
       <c r="J2">
-        <v>0.08603833314354256</v>
+        <v>0.09527060788475794</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.750370666666667</v>
+        <v>1.734345333333333</v>
       </c>
       <c r="N2">
-        <v>5.251112</v>
+        <v>5.203036</v>
       </c>
       <c r="O2">
-        <v>0.0391111353954311</v>
+        <v>0.03579425885799617</v>
       </c>
       <c r="P2">
-        <v>0.03922717319114838</v>
+        <v>0.03588261565230796</v>
       </c>
       <c r="Q2">
-        <v>15.61563784039467</v>
+        <v>15.005066738616</v>
       </c>
       <c r="R2">
-        <v>140.540740563552</v>
+        <v>135.045600647544</v>
       </c>
       <c r="S2">
-        <v>0.00318067428940122</v>
+        <v>0.003373526237397949</v>
       </c>
       <c r="T2">
-        <v>0.003375040595299466</v>
+        <v>0.003418558605690509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.921332</v>
+        <v>8.651718000000001</v>
       </c>
       <c r="H3">
-        <v>26.763996</v>
+        <v>25.955154</v>
       </c>
       <c r="I3">
-        <v>0.08132400804126952</v>
+        <v>0.09424769069200405</v>
       </c>
       <c r="J3">
-        <v>0.08603833314354256</v>
+        <v>0.09527060788475794</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.672664</v>
       </c>
       <c r="O3">
-        <v>0.02735459821956294</v>
+        <v>0.02526607271493867</v>
       </c>
       <c r="P3">
-        <v>0.02743575585531137</v>
+        <v>0.02532844107403216</v>
       </c>
       <c r="Q3">
-        <v>10.92168495614933</v>
+        <v>10.591617745584</v>
       </c>
       <c r="R3">
-        <v>98.295164605344</v>
+        <v>95.32455971025601</v>
       </c>
       <c r="S3">
-        <v>0.002224585565573433</v>
+        <v>0.002381269006239223</v>
       </c>
       <c r="T3">
-        <v>0.002360526702324178</v>
+        <v>0.002413055977896315</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.921332</v>
+        <v>8.651718000000001</v>
       </c>
       <c r="H4">
-        <v>26.763996</v>
+        <v>25.955154</v>
       </c>
       <c r="I4">
-        <v>0.08132400804126952</v>
+        <v>0.09424769069200405</v>
       </c>
       <c r="J4">
-        <v>0.08603833314354256</v>
+        <v>0.09527060788475794</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.688264</v>
+        <v>25.13399766666667</v>
       </c>
       <c r="N4">
-        <v>59.064792</v>
+        <v>75.401993</v>
       </c>
       <c r="O4">
-        <v>0.4399241678743427</v>
+        <v>0.5187276151560003</v>
       </c>
       <c r="P4">
-        <v>0.4412293672812836</v>
+        <v>0.5200080749464381</v>
       </c>
       <c r="Q4">
-        <v>175.645539647648</v>
+        <v>217.452260024658</v>
       </c>
       <c r="R4">
-        <v>1580.809856828832</v>
+        <v>1957.070340221922</v>
       </c>
       <c r="S4">
-        <v>0.03577639656576185</v>
+        <v>0.04888887982662363</v>
       </c>
       <c r="T4">
-        <v>0.03796263929486158</v>
+        <v>0.04954148540512992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.921332</v>
+        <v>8.651718000000001</v>
       </c>
       <c r="H5">
-        <v>26.763996</v>
+        <v>25.955154</v>
       </c>
       <c r="I5">
-        <v>0.08132400804126952</v>
+        <v>0.09424769069200405</v>
       </c>
       <c r="J5">
-        <v>0.08603833314354256</v>
+        <v>0.09527060788475794</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.397158</v>
+        <v>0.357931</v>
       </c>
       <c r="N5">
-        <v>0.794316</v>
+        <v>0.715862</v>
       </c>
       <c r="O5">
-        <v>0.008874291946950641</v>
+        <v>0.007387153308549907</v>
       </c>
       <c r="P5">
-        <v>0.005933747233062296</v>
+        <v>0.004936925480833206</v>
       </c>
       <c r="Q5">
-        <v>3.543178374456</v>
+        <v>3.096718075458</v>
       </c>
       <c r="R5">
-        <v>21.259070246736</v>
+        <v>18.580308452748</v>
       </c>
       <c r="S5">
-        <v>0.0007216929896543872</v>
+        <v>0.000696222140118626</v>
       </c>
       <c r="T5">
-        <v>0.0005105297212277877</v>
+        <v>0.0004703438916407304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.921332</v>
+        <v>8.651718000000001</v>
       </c>
       <c r="H6">
-        <v>26.763996</v>
+        <v>25.955154</v>
       </c>
       <c r="I6">
-        <v>0.08132400804126952</v>
+        <v>0.09424769069200405</v>
       </c>
       <c r="J6">
-        <v>0.08603833314354256</v>
+        <v>0.09527060788475794</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.69375366666667</v>
+        <v>20.00267533333333</v>
       </c>
       <c r="N6">
-        <v>65.081261</v>
+        <v>60.008026</v>
       </c>
       <c r="O6">
-        <v>0.4847358065637125</v>
+        <v>0.412824899962515</v>
       </c>
       <c r="P6">
-        <v>0.4861739564391943</v>
+        <v>0.4138439428463888</v>
       </c>
       <c r="Q6">
-        <v>193.5371787865506</v>
+        <v>173.057506229556</v>
       </c>
       <c r="R6">
-        <v>1741.834609078956</v>
+        <v>1557.517556066004</v>
       </c>
       <c r="S6">
-        <v>0.03942065863087862</v>
+        <v>0.03890779348162463</v>
       </c>
       <c r="T6">
-        <v>0.04182959682982955</v>
+        <v>0.03942716400440048</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>228.840844</v>
       </c>
       <c r="I7">
-        <v>0.6953466379843617</v>
+        <v>0.8309610138706613</v>
       </c>
       <c r="J7">
-        <v>0.7356556462241831</v>
+        <v>0.8399798481928121</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.750370666666667</v>
+        <v>1.734345333333333</v>
       </c>
       <c r="N7">
-        <v>5.251112</v>
+        <v>5.203036</v>
       </c>
       <c r="O7">
-        <v>0.0391111353954311</v>
+        <v>0.03579425885799617</v>
       </c>
       <c r="P7">
-        <v>0.03922717319114838</v>
+        <v>0.03588261565230796</v>
       </c>
       <c r="Q7">
-        <v>133.5187668909476</v>
+        <v>132.2963499558205</v>
       </c>
       <c r="R7">
-        <v>1201.668902018528</v>
+        <v>1190.667149602384</v>
       </c>
       <c r="S7">
-        <v>0.02719579650496419</v>
+        <v>0.0297436336313894</v>
       </c>
       <c r="T7">
-        <v>0.02885769144348221</v>
+        <v>0.03014067404838666</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>228.840844</v>
       </c>
       <c r="I8">
-        <v>0.6953466379843617</v>
+        <v>0.8309610138706613</v>
       </c>
       <c r="J8">
-        <v>0.7356556462241831</v>
+        <v>0.8399798481928121</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.672664</v>
       </c>
       <c r="O8">
-        <v>0.02735459821956294</v>
+        <v>0.02526607271493867</v>
       </c>
       <c r="P8">
-        <v>0.02743575585531137</v>
+        <v>0.02532844107403216</v>
       </c>
       <c r="Q8">
         <v>93.38394772093511</v>
@@ -948,10 +948,10 @@
         <v>840.455529488416</v>
       </c>
       <c r="S8">
-        <v>0.0190209279053861</v>
+        <v>0.02099512139973529</v>
       </c>
       <c r="T8">
-        <v>0.020183268703388</v>
+        <v>0.02127538008832612</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>228.840844</v>
       </c>
       <c r="I9">
-        <v>0.6953466379843617</v>
+        <v>0.8309610138706613</v>
       </c>
       <c r="J9">
-        <v>0.7356556462241831</v>
+        <v>0.8399798481928121</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.688264</v>
+        <v>25.13399766666667</v>
       </c>
       <c r="N9">
-        <v>59.064792</v>
+        <v>75.401993</v>
       </c>
       <c r="O9">
-        <v>0.4399241678743427</v>
+        <v>0.5187276151560003</v>
       </c>
       <c r="P9">
-        <v>0.4412293672812836</v>
+        <v>0.5200080749464381</v>
       </c>
       <c r="Q9">
-        <v>1501.826316884939</v>
+        <v>1917.228413044677</v>
       </c>
       <c r="R9">
-        <v>13516.43685196445</v>
+        <v>17255.05571740209</v>
       </c>
       <c r="S9">
-        <v>0.3058997910994922</v>
+        <v>0.4310424250127403</v>
       </c>
       <c r="T9">
-        <v>0.3245928753204001</v>
+        <v>0.4367963038525455</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>228.840844</v>
       </c>
       <c r="I10">
-        <v>0.6953466379843617</v>
+        <v>0.8309610138706613</v>
       </c>
       <c r="J10">
-        <v>0.7356556462241831</v>
+        <v>0.8399798481928121</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.397158</v>
+        <v>0.357931</v>
       </c>
       <c r="N10">
-        <v>0.794316</v>
+        <v>0.715862</v>
       </c>
       <c r="O10">
-        <v>0.008874291946950641</v>
+        <v>0.007387153308549907</v>
       </c>
       <c r="P10">
-        <v>0.005933747233062296</v>
+        <v>0.004936925480833206</v>
       </c>
       <c r="Q10">
-        <v>30.295323973784</v>
+        <v>27.30307737792133</v>
       </c>
       <c r="R10">
-        <v>181.771943842704</v>
+        <v>163.818464267528</v>
       </c>
       <c r="S10">
-        <v>0.006170709069803823</v>
+        <v>0.006138436402890642</v>
       </c>
       <c r="T10">
-        <v>0.004365194655269401</v>
+        <v>0.004146917915929502</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>228.840844</v>
       </c>
       <c r="I11">
-        <v>0.6953466379843617</v>
+        <v>0.8309610138706613</v>
       </c>
       <c r="J11">
-        <v>0.7356556462241831</v>
+        <v>0.8399798481928121</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.69375366666667</v>
+        <v>20.00267533333333</v>
       </c>
       <c r="N11">
-        <v>65.081261</v>
+        <v>60.008026</v>
       </c>
       <c r="O11">
-        <v>0.4847358065637125</v>
+        <v>0.412824899962515</v>
       </c>
       <c r="P11">
-        <v>0.4861739564391943</v>
+        <v>0.4138439428463888</v>
       </c>
       <c r="Q11">
-        <v>1654.805632869365</v>
+        <v>1525.809701845994</v>
       </c>
       <c r="R11">
-        <v>14893.25069582428</v>
+        <v>13732.28731661395</v>
       </c>
       <c r="S11">
-        <v>0.3370594134047154</v>
+        <v>0.3430413974239058</v>
       </c>
       <c r="T11">
-        <v>0.3576566161016433</v>
+        <v>0.3476205722876244</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.951015</v>
+        <v>3.806801666666667</v>
       </c>
       <c r="H12">
-        <v>8.853045</v>
+        <v>11.420405</v>
       </c>
       <c r="I12">
-        <v>0.02690050853279611</v>
+        <v>0.04146948224685611</v>
       </c>
       <c r="J12">
-        <v>0.02845992186834783</v>
+        <v>0.04191957122042617</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.750370666666667</v>
+        <v>1.734345333333333</v>
       </c>
       <c r="N12">
-        <v>5.251112</v>
+        <v>5.203036</v>
       </c>
       <c r="O12">
-        <v>0.0391111353954311</v>
+        <v>0.03579425885799617</v>
       </c>
       <c r="P12">
-        <v>0.03922717319114838</v>
+        <v>0.03588261565230796</v>
       </c>
       <c r="Q12">
-        <v>5.165370092893333</v>
+        <v>6.602308705508889</v>
       </c>
       <c r="R12">
-        <v>46.48833083604</v>
+        <v>59.42077834958</v>
       </c>
       <c r="S12">
-        <v>0.001052109431432138</v>
+        <v>0.001484369382251044</v>
       </c>
       <c r="T12">
-        <v>0.001116402284136231</v>
+        <v>0.001504183862412102</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.951015</v>
+        <v>3.806801666666667</v>
       </c>
       <c r="H13">
-        <v>8.853045</v>
+        <v>11.420405</v>
       </c>
       <c r="I13">
-        <v>0.02690050853279611</v>
+        <v>0.04146948224685611</v>
       </c>
       <c r="J13">
-        <v>0.02845992186834783</v>
+        <v>0.04191957122042617</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.672664</v>
       </c>
       <c r="O13">
-        <v>0.02735459821956294</v>
+        <v>0.02526607271493867</v>
       </c>
       <c r="P13">
-        <v>0.02743575585531137</v>
+        <v>0.02532844107403216</v>
       </c>
       <c r="Q13">
-        <v>3.612695517986667</v>
+        <v>4.660367812102223</v>
       </c>
       <c r="R13">
-        <v>32.51425966188</v>
+        <v>41.94331030892</v>
       </c>
       <c r="S13">
-        <v>0.0007358526028165621</v>
+        <v>0.001047770953899925</v>
       </c>
       <c r="T13">
-        <v>0.0007808194680412279</v>
+        <v>0.001061757389505258</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.951015</v>
+        <v>3.806801666666667</v>
       </c>
       <c r="H14">
-        <v>8.853045</v>
+        <v>11.420405</v>
       </c>
       <c r="I14">
-        <v>0.02690050853279611</v>
+        <v>0.04146948224685611</v>
       </c>
       <c r="J14">
-        <v>0.02845992186834783</v>
+        <v>0.04191957122042617</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.688264</v>
+        <v>25.13399766666667</v>
       </c>
       <c r="N14">
-        <v>59.064792</v>
+        <v>75.401993</v>
       </c>
       <c r="O14">
-        <v>0.4399241678743427</v>
+        <v>0.5187276151560003</v>
       </c>
       <c r="P14">
-        <v>0.4412293672812836</v>
+        <v>0.5200080749464381</v>
       </c>
       <c r="Q14">
-        <v>58.10036238796</v>
+        <v>95.68014420746279</v>
       </c>
       <c r="R14">
-        <v>522.90326149164</v>
+        <v>861.1212978671651</v>
       </c>
       <c r="S14">
-        <v>0.01183418383168698</v>
+        <v>0.02151136562766576</v>
       </c>
       <c r="T14">
-        <v>0.01255735331884588</v>
+        <v>0.02179851553291392</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.951015</v>
+        <v>3.806801666666667</v>
       </c>
       <c r="H15">
-        <v>8.853045</v>
+        <v>11.420405</v>
       </c>
       <c r="I15">
-        <v>0.02690050853279611</v>
+        <v>0.04146948224685611</v>
       </c>
       <c r="J15">
-        <v>0.02845992186834783</v>
+        <v>0.04191957122042617</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.397158</v>
+        <v>0.357931</v>
       </c>
       <c r="N15">
-        <v>0.794316</v>
+        <v>0.715862</v>
       </c>
       <c r="O15">
-        <v>0.008874291946950641</v>
+        <v>0.007387153308549907</v>
       </c>
       <c r="P15">
-        <v>0.005933747233062296</v>
+        <v>0.004936925480833206</v>
       </c>
       <c r="Q15">
-        <v>1.17201921537</v>
+        <v>1.362572327351667</v>
       </c>
       <c r="R15">
-        <v>7.03211529222</v>
+        <v>8.175433964110001</v>
       </c>
       <c r="S15">
-        <v>0.0002387229662414695</v>
+        <v>0.0003063414229837148</v>
       </c>
       <c r="T15">
-        <v>0.000168873982639478</v>
+        <v>0.0002069537993037243</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.951015</v>
+        <v>3.806801666666667</v>
       </c>
       <c r="H16">
-        <v>8.853045</v>
+        <v>11.420405</v>
       </c>
       <c r="I16">
-        <v>0.02690050853279611</v>
+        <v>0.04146948224685611</v>
       </c>
       <c r="J16">
-        <v>0.02845992186834783</v>
+        <v>0.04191957122042617</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.69375366666667</v>
+        <v>20.00267533333333</v>
       </c>
       <c r="N16">
-        <v>65.081261</v>
+        <v>60.008026</v>
       </c>
       <c r="O16">
-        <v>0.4847358065637125</v>
+        <v>0.412824899962515</v>
       </c>
       <c r="P16">
-        <v>0.4861739564391943</v>
+        <v>0.4138439428463888</v>
       </c>
       <c r="Q16">
-        <v>64.01859247663833</v>
+        <v>76.14621779672555</v>
       </c>
       <c r="R16">
-        <v>576.167332289745</v>
+        <v>685.31596017053</v>
       </c>
       <c r="S16">
-        <v>0.01303963970061895</v>
+        <v>0.01711963486005567</v>
       </c>
       <c r="T16">
-        <v>0.01383647281468501</v>
+        <v>0.01734816063629117</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.032657</v>
+        <v>2.956885</v>
       </c>
       <c r="H17">
-        <v>36.065314</v>
+        <v>5.91377</v>
       </c>
       <c r="I17">
-        <v>0.1643799314803502</v>
+        <v>0.03221089532643417</v>
       </c>
       <c r="J17">
-        <v>0.1159393201545266</v>
+        <v>0.02170699749231482</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.750370666666667</v>
+        <v>1.734345333333333</v>
       </c>
       <c r="N17">
-        <v>5.251112</v>
+        <v>5.203036</v>
       </c>
       <c r="O17">
-        <v>0.0391111353954311</v>
+        <v>0.03579425885799617</v>
       </c>
       <c r="P17">
-        <v>0.03922717319114838</v>
+        <v>0.03588261565230796</v>
       </c>
       <c r="Q17">
-        <v>31.56383385486134</v>
+        <v>5.128259700953333</v>
       </c>
       <c r="R17">
-        <v>189.383003129168</v>
+        <v>30.76955820572</v>
       </c>
       <c r="S17">
-        <v>0.006429085756419662</v>
+        <v>0.001152965125362204</v>
       </c>
       <c r="T17">
-        <v>0.004547971791365615</v>
+        <v>0.0007789038479823452</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.032657</v>
+        <v>2.956885</v>
       </c>
       <c r="H18">
-        <v>36.065314</v>
+        <v>5.91377</v>
       </c>
       <c r="I18">
-        <v>0.1643799314803502</v>
+        <v>0.03221089532643417</v>
       </c>
       <c r="J18">
-        <v>0.1159393201545266</v>
+        <v>0.02170699749231482</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.672664</v>
       </c>
       <c r="O18">
-        <v>0.02735459821956294</v>
+        <v>0.02526607271493867</v>
       </c>
       <c r="P18">
-        <v>0.02743575585531137</v>
+        <v>0.02532844107403216</v>
       </c>
       <c r="Q18">
-        <v>22.07596339608267</v>
+        <v>3.619881697213333</v>
       </c>
       <c r="R18">
-        <v>132.455780376496</v>
+        <v>21.71929018328</v>
       </c>
       <c r="S18">
-        <v>0.004496546981004265</v>
+        <v>0.0008138428235309639</v>
       </c>
       <c r="T18">
-        <v>0.003180882881790372</v>
+        <v>0.0005498044068782596</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.032657</v>
+        <v>2.956885</v>
       </c>
       <c r="H19">
-        <v>36.065314</v>
+        <v>5.91377</v>
       </c>
       <c r="I19">
-        <v>0.1643799314803502</v>
+        <v>0.03221089532643417</v>
       </c>
       <c r="J19">
-        <v>0.1159393201545266</v>
+        <v>0.02170699749231482</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.688264</v>
+        <v>25.13399766666667</v>
       </c>
       <c r="N19">
-        <v>59.064792</v>
+        <v>75.401993</v>
       </c>
       <c r="O19">
-        <v>0.4399241678743427</v>
+        <v>0.5187276151560003</v>
       </c>
       <c r="P19">
-        <v>0.4412293672812836</v>
+        <v>0.5200080749464381</v>
       </c>
       <c r="Q19">
-        <v>355.031711637448</v>
+        <v>74.31834069060167</v>
       </c>
       <c r="R19">
-        <v>2130.190269824688</v>
+        <v>445.91004414361</v>
       </c>
       <c r="S19">
-        <v>0.07231470457173451</v>
+        <v>0.01670868091472075</v>
       </c>
       <c r="T19">
-        <v>0.05115583287480395</v>
+        <v>0.01128781397884579</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.032657</v>
+        <v>2.956885</v>
       </c>
       <c r="H20">
-        <v>36.065314</v>
+        <v>5.91377</v>
       </c>
       <c r="I20">
-        <v>0.1643799314803502</v>
+        <v>0.03221089532643417</v>
       </c>
       <c r="J20">
-        <v>0.1159393201545266</v>
+        <v>0.02170699749231482</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.397158</v>
+        <v>0.357931</v>
       </c>
       <c r="N20">
-        <v>0.794316</v>
+        <v>0.715862</v>
       </c>
       <c r="O20">
-        <v>0.008874291946950641</v>
+        <v>0.007387153308549907</v>
       </c>
       <c r="P20">
-        <v>0.005933747233062296</v>
+        <v>0.004936925480833206</v>
       </c>
       <c r="Q20">
-        <v>7.161813988806</v>
+        <v>1.058360804935</v>
       </c>
       <c r="R20">
-        <v>28.647255955224</v>
+        <v>4.23344321974</v>
       </c>
       <c r="S20">
-        <v>0.001458755502176369</v>
+        <v>0.0002379468219820229</v>
       </c>
       <c r="T20">
-        <v>0.0006879546201700459</v>
+        <v>0.0001071658290321915</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.032657</v>
+        <v>2.956885</v>
       </c>
       <c r="H21">
-        <v>36.065314</v>
+        <v>5.91377</v>
       </c>
       <c r="I21">
-        <v>0.1643799314803502</v>
+        <v>0.03221089532643417</v>
       </c>
       <c r="J21">
-        <v>0.1159393201545266</v>
+        <v>0.02170699749231482</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.69375366666667</v>
+        <v>20.00267533333333</v>
       </c>
       <c r="N21">
-        <v>65.081261</v>
+        <v>60.008026</v>
       </c>
       <c r="O21">
-        <v>0.4847358065637125</v>
+        <v>0.412824899962515</v>
       </c>
       <c r="P21">
-        <v>0.4861739564391943</v>
+        <v>0.4138439428463888</v>
       </c>
       <c r="Q21">
-        <v>391.1960189134923</v>
+        <v>59.14561065300332</v>
       </c>
       <c r="R21">
-        <v>2347.176113480954</v>
+        <v>354.87366391802</v>
       </c>
       <c r="S21">
-        <v>0.07968083866901533</v>
+        <v>0.01329745964083823</v>
       </c>
       <c r="T21">
-        <v>0.05636667798639662</v>
+        <v>0.008983309429576238</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>3.515800666666667</v>
+        <v>0.1019796666666667</v>
       </c>
       <c r="H22">
-        <v>10.547402</v>
+        <v>0.305939</v>
       </c>
       <c r="I22">
-        <v>0.03204891396122247</v>
+        <v>0.001110917864044306</v>
       </c>
       <c r="J22">
-        <v>0.03390677860939999</v>
+        <v>0.001122975209688795</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.750370666666667</v>
+        <v>1.734345333333333</v>
       </c>
       <c r="N22">
-        <v>5.251112</v>
+        <v>5.203036</v>
       </c>
       <c r="O22">
-        <v>0.0391111353954311</v>
+        <v>0.03579425885799617</v>
       </c>
       <c r="P22">
-        <v>0.03922717319114838</v>
+        <v>0.03588261565230796</v>
       </c>
       <c r="Q22">
-        <v>6.153954356780445</v>
+        <v>0.1768679589782222</v>
       </c>
       <c r="R22">
-        <v>55.385589211024</v>
+        <v>1.591811630804</v>
       </c>
       <c r="S22">
-        <v>0.001253469413213894</v>
+        <v>3.976448159557408E-05</v>
       </c>
       <c r="T22">
-        <v>0.001330067076864859</v>
+        <v>4.029528783633296E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>3.515800666666667</v>
+        <v>0.1019796666666667</v>
       </c>
       <c r="H23">
-        <v>10.547402</v>
+        <v>0.305939</v>
       </c>
       <c r="I23">
-        <v>0.03204891396122247</v>
+        <v>0.001110917864044306</v>
       </c>
       <c r="J23">
-        <v>0.03390677860939999</v>
+        <v>0.001122975209688795</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.672664</v>
       </c>
       <c r="O23">
-        <v>0.02735459821956294</v>
+        <v>0.02526607271493867</v>
       </c>
       <c r="P23">
-        <v>0.02743575585531137</v>
+        <v>0.02532844107403216</v>
       </c>
       <c r="Q23">
-        <v>4.30411817988089</v>
+        <v>0.1248456834995556</v>
       </c>
       <c r="R23">
-        <v>38.737063618928</v>
+        <v>1.123611151496</v>
       </c>
       <c r="S23">
-        <v>0.0008766851647825819</v>
+        <v>2.806853153326779E-05</v>
       </c>
       <c r="T23">
-        <v>0.0009302580997675921</v>
+        <v>2.844321142620154E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>3.515800666666667</v>
+        <v>0.1019796666666667</v>
       </c>
       <c r="H24">
-        <v>10.547402</v>
+        <v>0.305939</v>
       </c>
       <c r="I24">
-        <v>0.03204891396122247</v>
+        <v>0.001110917864044306</v>
       </c>
       <c r="J24">
-        <v>0.03390677860939999</v>
+        <v>0.001122975209688795</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.688264</v>
+        <v>25.13399766666667</v>
       </c>
       <c r="N24">
-        <v>59.064792</v>
+        <v>75.401993</v>
       </c>
       <c r="O24">
-        <v>0.4399241678743427</v>
+        <v>0.5187276151560003</v>
       </c>
       <c r="P24">
-        <v>0.4412293672812836</v>
+        <v>0.5200080749464381</v>
       </c>
       <c r="Q24">
-        <v>69.22001169670934</v>
+        <v>2.563156704047445</v>
       </c>
       <c r="R24">
-        <v>622.980105270384</v>
+        <v>23.068410336427</v>
       </c>
       <c r="S24">
-        <v>0.0140990918056672</v>
+        <v>0.0005762637742499007</v>
       </c>
       <c r="T24">
-        <v>0.01496066647237212</v>
+        <v>0.0005839561770028428</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>3.515800666666667</v>
+        <v>0.1019796666666667</v>
       </c>
       <c r="H25">
-        <v>10.547402</v>
+        <v>0.305939</v>
       </c>
       <c r="I25">
-        <v>0.03204891396122247</v>
+        <v>0.001110917864044306</v>
       </c>
       <c r="J25">
-        <v>0.03390677860939999</v>
+        <v>0.001122975209688795</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.397158</v>
+        <v>0.357931</v>
       </c>
       <c r="N25">
-        <v>0.794316</v>
+        <v>0.715862</v>
       </c>
       <c r="O25">
-        <v>0.008874291946950641</v>
+        <v>0.007387153308549907</v>
       </c>
       <c r="P25">
-        <v>0.005933747233062296</v>
+        <v>0.004936925480833206</v>
       </c>
       <c r="Q25">
-        <v>1.396328361172</v>
+        <v>0.03650168406966667</v>
       </c>
       <c r="R25">
-        <v>8.377970167032</v>
+        <v>0.219010104418</v>
       </c>
       <c r="S25">
-        <v>0.0002844114190745905</v>
+        <v>8.206520574902091E-06</v>
       </c>
       <c r="T25">
-        <v>0.0002011942537555831</v>
+        <v>5.544044927056623E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>3.515800666666667</v>
+        <v>0.1019796666666667</v>
       </c>
       <c r="H26">
-        <v>10.547402</v>
+        <v>0.305939</v>
       </c>
       <c r="I26">
-        <v>0.03204891396122247</v>
+        <v>0.001110917864044306</v>
       </c>
       <c r="J26">
-        <v>0.03390677860939999</v>
+        <v>0.001122975209688795</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.69375366666667</v>
+        <v>20.00267533333333</v>
       </c>
       <c r="N26">
-        <v>65.081261</v>
+        <v>60.008026</v>
       </c>
       <c r="O26">
-        <v>0.4847358065637125</v>
+        <v>0.412824899962515</v>
       </c>
       <c r="P26">
-        <v>0.4861739564391943</v>
+        <v>0.4138439428463888</v>
       </c>
       <c r="Q26">
-        <v>76.27091360376912</v>
+        <v>2.039866162934889</v>
       </c>
       <c r="R26">
-        <v>686.438222433922</v>
+        <v>18.358795466414</v>
       </c>
       <c r="S26">
-        <v>0.0155352561584842</v>
+        <v>0.0004586145560906615</v>
       </c>
       <c r="T26">
-        <v>0.01648459270663984</v>
+        <v>0.000464736488496361</v>
       </c>
     </row>
   </sheetData>
